--- a/similarities/split_global/harmonic_similarity_timestamps_297.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_297.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'C:maj'], ['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F#/A#', 'C#:7/G#', 'F#/A#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:maj'], ['F#:7', 'B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:44.760000', '0:00:48.460000'), ('0:00:45.960000', '0:00:49.040000')]</t>
+          <t>('0:00:53.220000', '0:00:55.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.880000', '0:00:11.600000'), ('0:00:09.540000', '0:00:12.320000')]</t>
+          <t>('0:00:59.730000', '0:01:03.930000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=44.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=45.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=53.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=8.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>jaah_10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['Ab:7', 'Db:maj6', 'Db:7/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['Bb:7', 'Eb:maj6', 'Eb:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:36.280000', '0:00:38'), ('0:00:09.620000', '0:00:14.180000'), ('0:00:36.140000', '0:00:37.580000')]</t>
+          <t>('0:00:36.030000', '0:00:37.750000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:27.080000', '0:00:47.900000'), ('0:00:00.820000', '0:00:06.760000'), ('0:00:55.720000', '0:01:04.640000')]</t>
+          <t>('0:01:23.490000', '0:01:31.690000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=36.03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=27.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=55.72']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=83.49</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C', 'F:min']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:10.598321', '0:00:14.743083')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:27.240000', '0:01:30.180000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=10.598321']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=87.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:44.200000', '0:00:59.980000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>jaah_44</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['Db:min7', 'Gb:7', 'Cb:maj7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:25.640000', '0:00:56.260000')]</t>
+          <t>('0:00:12.640000', '0:00:16.490000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:01:01.580000')]</t>
+          <t>('0:00:02.190000', '0:00:05.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-44#t=12.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=2.19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:min', 'F#:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min/4', 'F#:min', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.224693', '0:00:15.343151')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:33.658000', '0:00:37.859000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=9.224693']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=33.658']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:38.900000', '0:00:44.360000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'G:min', 'D']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:02.879563', '0:01:11.679925')]</t>
+          <t>('0:00:24.260000', '0:00:27.200000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:05.800000', '0:00:13.480000')]</t>
+          <t>('0:00:58.060000', '0:01:00.620000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-30#t=24.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=5.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=58.06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:23.260000', '0:00:31.740000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=23.26</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'B:7/F#', 'E:min']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:44.339000', '0:00:48.135000')]</t>
+          <t>('0:00:14.360000', '0:00:19.220000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:01.460000', '0:01:05.260000')]</t>
+          <t>('0:00:37.120000', '0:00:40.060000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=44.339']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=61.46']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=37.12</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:35.820000', '0:00:37.760000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:05.672040', '0:00:08.841564')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:min', 'G#:7', 'C#:min']]</t>
+          <t>['A:min', 'G#:dim7', 'A:min', 'G#:dim7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:24.282834', '0:00:31.446190')]</t>
+          <t>('0:00:20.660000', '0:00:26.400000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.940000', '0:00:50.680000')]</t>
+          <t>('0:00:00.540000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=20.66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=43.94']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=0.54</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>isophonics_197</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D/5', 'E/4', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+          <t>('0:00:16.088141', '0:00:27.709728')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
+          <t>('0:00:05.544000', '0:00:09.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=16.088141</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=5.544</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
